--- a/Scrum/phase 2/Sprint 3/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 3/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 2\Sprint 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Universidade\ES\ES_gantProject\Scrum\phase 2\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44437B16-5EC8-4D94-A2A1-82025A270990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E997ACD3-6355-4CBE-B6F6-E6B5BE6CD0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Task Description</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Guilherme</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <dimension ref="B5:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +680,9 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -690,7 +695,9 @@
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
